--- a/week-1/Solutions/1-2-A-basics-formulas-functions/temperature-pulse-check-solutions.xlsx
+++ b/week-1/Solutions/1-2-A-basics-formulas-functions/temperature-pulse-check-solutions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\Week 1\day-4-basics-of-formulas-and-functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Setup\Documents\GitHub\data-analytics-lectures\week-1\Solutions\1-2-A-basics-formulas-functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Day</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Formula</t>
+  </si>
+  <si>
+    <t>Average temperature (Celsius)</t>
   </si>
 </sst>
 </file>
@@ -74,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -90,6 +93,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -371,15 +377,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
@@ -485,7 +489,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <v>43732</v>
+        <v>43731</v>
       </c>
       <c r="B5" s="3">
         <v>81</v>
@@ -510,7 +514,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>43733</v>
+        <v>43732</v>
       </c>
       <c r="B6" s="3">
         <v>74</v>
@@ -533,6 +537,19 @@
         <v>=B6-32*5/9</v>
       </c>
     </row>
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f>(AVERAGE(B2:B6)-32)*(5/9)</f>
+        <v>21.999999999999996</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B8)</f>
+        <v>=(AVERAGE(B2:B6)-32)*(5/9)</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
